--- a/public/templatePropostaFDIC_new.xlsx
+++ b/public/templatePropostaFDIC_new.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -2338,7 +2338,7 @@
   <dimension ref="A1:AB161"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G100" activeCellId="0" sqref="G100"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="22.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
